--- a/Projekt2/DaneMalaIloscKolorow.xlsx
+++ b/Projekt2/DaneMalaIloscKolorow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMapps\Git\Statystyczna-analiza-danych\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CF5CBCC2-D444-4A01-A169-BD0C1C303F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33E4DB47-049C-4DF4-AD1D-9E10B81B1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="51">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Honor 90</t>
-  </si>
-  <si>
-    <t>HUAWEI Mate X3</t>
   </si>
   <si>
     <t>HUAWEI nova 11</t>
@@ -1054,14 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1195,11 +1191,11 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P19" si="0">COUNTIF(L$2:L$134,O3)</f>
+        <f>COUNTIF(L$2:L$132,O3)</f>
         <v>21</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="1">IF(AND(NOT(L3=O$2),NOT(L3=O$3),NOT(L3=O$4),NOT(L3=O$5),NOT(L3=O$6),NOT(L3=O$7),NOT(L3=O$8),NOT(L3=O$9),NOT(L3=O$10),NOT(L3=O$11),NOT(L3=O$12),NOT(L3=O$13),NOT(L3=O$14),NOT(L3=O$15),NOT(L3=O$16),NOT(L3=O$17),NOT(L3=O$18),NOT(L3=O$19)),L3,)</f>
+        <f t="shared" ref="R3:R66" si="0">IF(AND(NOT(L3=O$2),NOT(L3=O$3),NOT(L3=O$4),NOT(L3=O$5),NOT(L3=O$6),NOT(L3=O$7),NOT(L3=O$8),NOT(L3=O$9),NOT(L3=O$10),NOT(L3=O$11),NOT(L3=O$12),NOT(L3=O$13),NOT(L3=O$14),NOT(L3=O$15),NOT(L3=O$16),NOT(L3=O$17),NOT(L3=O$18),NOT(L3=O$19)),L3,)</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,11 +1243,11 @@
         <v>17</v>
       </c>
       <c r="P4">
+        <f>COUNTIF(L$2:L$132,O4)</f>
+        <v>34</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1299,11 +1295,11 @@
         <v>18</v>
       </c>
       <c r="P5">
+        <f>COUNTIF(L$2:L$132,O5)</f>
+        <v>19</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1351,11 +1347,11 @@
         <v>19</v>
       </c>
       <c r="P6">
+        <f>COUNTIF(L$2:L$132,O6)</f>
+        <v>12</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1403,11 +1399,11 @@
         <v>26</v>
       </c>
       <c r="P7">
+        <f>COUNTIF(L$2:L$132,O7)</f>
+        <v>14</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,11 +1496,11 @@
         <v>30</v>
       </c>
       <c r="P9">
+        <f>COUNTIF(L$2:L$132,O9)</f>
+        <v>17</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1552,11 +1548,11 @@
         <v>23</v>
       </c>
       <c r="P10">
+        <f>COUNTIF(L$2:L$132,O10)</f>
+        <v>14</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1601,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1691,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1781,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1826,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1871,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2009,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2147,7 +2143,7 @@
         <v>15</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2237,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2285,7 +2281,7 @@
         <v>22</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2468,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2513,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2558,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2651,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2692,7 @@
         <v>15</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2786,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,7 +2830,7 @@
         <v>22</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2879,7 +2875,7 @@
         <v>15</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2924,7 +2920,7 @@
         <v>15</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3059,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3194,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3235,7 @@
         <v>15</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3374,7 +3370,7 @@
         <v>15</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +3415,7 @@
         <v>15</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3464,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3509,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3550,7 @@
         <v>15</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3602,7 +3598,7 @@
         <v>31</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,7 +3646,7 @@
         <v>32</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3740,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3785,7 +3781,7 @@
         <v>15</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3826,7 @@
         <v>15</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3875,7 +3871,7 @@
         <v>15</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3920,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3968,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4013,7 +4009,7 @@
         <v>15</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4103,7 +4099,7 @@
         <v>15</v>
       </c>
       <c r="R66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4144,7 @@
         <v>15</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="2">IF(AND(NOT(L67=O$2),NOT(L67=O$3),NOT(L67=O$4),NOT(L67=O$5),NOT(L67=O$6),NOT(L67=O$7),NOT(L67=O$8),NOT(L67=O$9),NOT(L67=O$10),NOT(L67=O$11),NOT(L67=O$12),NOT(L67=O$13),NOT(L67=O$14),NOT(L67=O$15),NOT(L67=O$16),NOT(L67=O$17),NOT(L67=O$18),NOT(L67=O$19)),L67,)</f>
+        <f t="shared" ref="R67:R130" si="1">IF(AND(NOT(L67=O$2),NOT(L67=O$3),NOT(L67=O$4),NOT(L67=O$5),NOT(L67=O$6),NOT(L67=O$7),NOT(L67=O$8),NOT(L67=O$9),NOT(L67=O$10),NOT(L67=O$11),NOT(L67=O$12),NOT(L67=O$13),NOT(L67=O$14),NOT(L67=O$15),NOT(L67=O$16),NOT(L67=O$17),NOT(L67=O$18),NOT(L67=O$19)),L67,)</f>
         <v>0</v>
       </c>
     </row>
@@ -4193,7 +4189,7 @@
         <v>15</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4241,7 +4237,7 @@
         <v>31</v>
       </c>
       <c r="R69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4289,7 +4285,7 @@
         <v>32</v>
       </c>
       <c r="R70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="R71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4379,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="R72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="R73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4469,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="R74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4510,7 @@
         <v>15</v>
       </c>
       <c r="R75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4559,7 +4555,7 @@
         <v>15</v>
       </c>
       <c r="R76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4604,7 +4600,7 @@
         <v>15</v>
       </c>
       <c r="R77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="R78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4694,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="R79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4739,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="R80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4784,7 +4780,7 @@
         <v>15</v>
       </c>
       <c r="R81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4829,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="R82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4874,7 +4870,7 @@
         <v>15</v>
       </c>
       <c r="R83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4919,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="R84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +4960,7 @@
         <v>15</v>
       </c>
       <c r="R85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="R86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,7 +5050,7 @@
         <v>15</v>
       </c>
       <c r="R87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5099,7 +5095,7 @@
         <v>15</v>
       </c>
       <c r="R88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5147,7 +5143,7 @@
         <v>37</v>
       </c>
       <c r="R89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5192,7 +5188,7 @@
         <v>15</v>
       </c>
       <c r="R90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="R91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5282,7 +5278,7 @@
         <v>15</v>
       </c>
       <c r="R92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5327,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="R93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5372,7 +5368,7 @@
         <v>15</v>
       </c>
       <c r="R94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5417,7 +5413,7 @@
         <v>15</v>
       </c>
       <c r="R95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +5458,7 @@
         <v>15</v>
       </c>
       <c r="R96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5507,7 +5503,7 @@
         <v>15</v>
       </c>
       <c r="R97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5552,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="R98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5597,7 +5593,7 @@
         <v>15</v>
       </c>
       <c r="R99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5642,7 +5638,7 @@
         <v>15</v>
       </c>
       <c r="R100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5687,7 +5683,7 @@
         <v>15</v>
       </c>
       <c r="R101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5732,7 +5728,7 @@
         <v>15</v>
       </c>
       <c r="R102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5777,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="R103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5822,7 +5818,7 @@
         <v>15</v>
       </c>
       <c r="R104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5867,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="R105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5912,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="R106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5957,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="R107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6002,7 +5998,7 @@
         <v>15</v>
       </c>
       <c r="R108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6047,7 +6043,7 @@
         <v>15</v>
       </c>
       <c r="R109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6092,7 +6088,7 @@
         <v>15</v>
       </c>
       <c r="R110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6137,7 +6133,7 @@
         <v>15</v>
       </c>
       <c r="R111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6182,7 +6178,7 @@
         <v>15</v>
       </c>
       <c r="R112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6227,7 +6223,7 @@
         <v>15</v>
       </c>
       <c r="R113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6272,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="R114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6317,7 +6313,7 @@
         <v>15</v>
       </c>
       <c r="R115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6362,7 +6358,7 @@
         <v>15</v>
       </c>
       <c r="R116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6407,7 +6403,7 @@
         <v>15</v>
       </c>
       <c r="R117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6452,7 +6448,7 @@
         <v>15</v>
       </c>
       <c r="R118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="R119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6542,7 +6538,7 @@
         <v>15</v>
       </c>
       <c r="R120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6587,7 +6583,7 @@
         <v>15</v>
       </c>
       <c r="R121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6596,28 +6592,28 @@
         <v>47</v>
       </c>
       <c r="B122">
-        <v>6.84</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>8500</v>
+        <v>2499</v>
       </c>
       <c r="D122">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="G122">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H122">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J122">
         <v>50</v>
@@ -6632,7 +6628,7 @@
         <v>15</v>
       </c>
       <c r="R122">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L122=O$2),NOT(L122=O$3),NOT(L122=O$4),NOT(L122=O$5),NOT(L122=O$6),NOT(L122=O$7),NOT(L122=O$8),NOT(L122=O$9),NOT(L122=O$10),NOT(L122=O$11),NOT(L122=O$12),NOT(L122=O$13),NOT(L122=O$14),NOT(L122=O$15),NOT(L122=O$16),NOT(L122=O$17),NOT(L122=O$18),NOT(L122=O$19)),L122,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6641,28 +6637,28 @@
         <v>47</v>
       </c>
       <c r="B123">
-        <v>6.84</v>
+        <v>7</v>
       </c>
       <c r="C123">
-        <v>9529</v>
+        <v>2500</v>
       </c>
       <c r="D123">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="G123">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H123">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J123">
         <v>50</v>
@@ -6677,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="R123">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L123=O$2),NOT(L123=O$3),NOT(L123=O$4),NOT(L123=O$5),NOT(L123=O$6),NOT(L123=O$7),NOT(L123=O$8),NOT(L123=O$9),NOT(L123=O$10),NOT(L123=O$11),NOT(L123=O$12),NOT(L123=O$13),NOT(L123=O$14),NOT(L123=O$15),NOT(L123=O$16),NOT(L123=O$17),NOT(L123=O$18),NOT(L123=O$19)),L123,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6686,19 +6682,19 @@
         <v>48</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="C124">
-        <v>2499</v>
+        <v>1089</v>
       </c>
       <c r="D124">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E124">
         <v>8</v>
       </c>
       <c r="F124">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G124">
         <v>4500</v>
@@ -6707,10 +6703,10 @@
         <v>2400</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J124">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="K124" t="s">
         <v>39</v>
@@ -6722,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="R124">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L124=O$2),NOT(L124=O$3),NOT(L124=O$4),NOT(L124=O$5),NOT(L124=O$6),NOT(L124=O$7),NOT(L124=O$8),NOT(L124=O$9),NOT(L124=O$10),NOT(L124=O$11),NOT(L124=O$12),NOT(L124=O$13),NOT(L124=O$14),NOT(L124=O$15),NOT(L124=O$16),NOT(L124=O$17),NOT(L124=O$18),NOT(L124=O$19)),L124,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6731,19 +6727,19 @@
         <v>48</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="C125">
-        <v>2500</v>
+        <v>999</v>
       </c>
       <c r="D125">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E125">
         <v>8</v>
       </c>
       <c r="F125">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G125">
         <v>4500</v>
@@ -6752,34 +6748,34 @@
         <v>2400</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J125">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="K125" t="s">
         <v>39</v>
       </c>
       <c r="L125" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M125" t="s">
         <v>15</v>
       </c>
       <c r="R125">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L125=O$2),NOT(L125=O$3),NOT(L125=O$4),NOT(L125=O$5),NOT(L125=O$6),NOT(L125=O$7),NOT(L125=O$8),NOT(L125=O$9),NOT(L125=O$10),NOT(L125=O$11),NOT(L125=O$12),NOT(L125=O$13),NOT(L125=O$14),NOT(L125=O$15),NOT(L125=O$16),NOT(L125=O$17),NOT(L125=O$18),NOT(L125=O$19)),L125,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B126">
         <v>6.45</v>
       </c>
       <c r="C126">
-        <v>1089</v>
+        <v>1615</v>
       </c>
       <c r="D126">
         <v>128</v>
@@ -6806,13 +6802,13 @@
         <v>39</v>
       </c>
       <c r="L126" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M126" t="s">
         <v>15</v>
       </c>
       <c r="R126">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L126=O$2),NOT(L126=O$3),NOT(L126=O$4),NOT(L126=O$5),NOT(L126=O$6),NOT(L126=O$7),NOT(L126=O$8),NOT(L126=O$9),NOT(L126=O$10),NOT(L126=O$11),NOT(L126=O$12),NOT(L126=O$13),NOT(L126=O$14),NOT(L126=O$15),NOT(L126=O$16),NOT(L126=O$17),NOT(L126=O$18),NOT(L126=O$19)),L126,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6821,10 +6817,10 @@
         <v>49</v>
       </c>
       <c r="B127">
-        <v>6.45</v>
+        <v>7.1</v>
       </c>
       <c r="C127">
-        <v>999</v>
+        <v>4013</v>
       </c>
       <c r="D127">
         <v>128</v>
@@ -6833,31 +6829,31 @@
         <v>8</v>
       </c>
       <c r="F127">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G127">
         <v>4500</v>
       </c>
       <c r="H127">
-        <v>2400</v>
+        <v>2420</v>
       </c>
       <c r="I127">
         <v>6</v>
       </c>
       <c r="J127">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="K127" t="s">
         <v>39</v>
       </c>
       <c r="L127" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M127" t="s">
         <v>15</v>
       </c>
       <c r="R127">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L127=O$2),NOT(L127=O$3),NOT(L127=O$4),NOT(L127=O$5),NOT(L127=O$6),NOT(L127=O$7),NOT(L127=O$8),NOT(L127=O$9),NOT(L127=O$10),NOT(L127=O$11),NOT(L127=O$12),NOT(L127=O$13),NOT(L127=O$14),NOT(L127=O$15),NOT(L127=O$16),NOT(L127=O$17),NOT(L127=O$18),NOT(L127=O$19)),L127,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6866,10 +6862,10 @@
         <v>49</v>
       </c>
       <c r="B128">
-        <v>6.45</v>
+        <v>7.1</v>
       </c>
       <c r="C128">
-        <v>1615</v>
+        <v>2147</v>
       </c>
       <c r="D128">
         <v>128</v>
@@ -6878,19 +6874,19 @@
         <v>8</v>
       </c>
       <c r="F128">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G128">
         <v>4500</v>
       </c>
       <c r="H128">
-        <v>2400</v>
+        <v>2420</v>
       </c>
       <c r="I128">
         <v>6</v>
       </c>
       <c r="J128">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="K128" t="s">
         <v>39</v>
@@ -6902,22 +6898,22 @@
         <v>15</v>
       </c>
       <c r="R128">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L128=O$2),NOT(L128=O$3),NOT(L128=O$4),NOT(L128=O$5),NOT(L128=O$6),NOT(L128=O$7),NOT(L128=O$8),NOT(L128=O$9),NOT(L128=O$10),NOT(L128=O$11),NOT(L128=O$12),NOT(L128=O$13),NOT(L128=O$14),NOT(L128=O$15),NOT(L128=O$16),NOT(L128=O$17),NOT(L128=O$18),NOT(L128=O$19)),L128,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B129">
         <v>7.1</v>
       </c>
       <c r="C129">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="D129">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E129">
         <v>8</v>
@@ -6947,22 +6943,22 @@
         <v>15</v>
       </c>
       <c r="R129">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L129=O$2),NOT(L129=O$3),NOT(L129=O$4),NOT(L129=O$5),NOT(L129=O$6),NOT(L129=O$7),NOT(L129=O$8),NOT(L129=O$9),NOT(L129=O$10),NOT(L129=O$11),NOT(L129=O$12),NOT(L129=O$13),NOT(L129=O$14),NOT(L129=O$15),NOT(L129=O$16),NOT(L129=O$17),NOT(L129=O$18),NOT(L129=O$19)),L129,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130">
         <v>7.1</v>
       </c>
       <c r="C130">
-        <v>2147</v>
+        <v>1859</v>
       </c>
       <c r="D130">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E130">
         <v>8</v>
@@ -6992,7 +6988,7 @@
         <v>15</v>
       </c>
       <c r="R130">
-        <f t="shared" si="2"/>
+        <f>IF(AND(NOT(L130=O$2),NOT(L130=O$3),NOT(L130=O$4),NOT(L130=O$5),NOT(L130=O$6),NOT(L130=O$7),NOT(L130=O$8),NOT(L130=O$9),NOT(L130=O$10),NOT(L130=O$11),NOT(L130=O$12),NOT(L130=O$13),NOT(L130=O$14),NOT(L130=O$15),NOT(L130=O$16),NOT(L130=O$17),NOT(L130=O$18),NOT(L130=O$19)),L130,)</f>
         <v>0</v>
       </c>
     </row>
@@ -7001,28 +6997,28 @@
         <v>50</v>
       </c>
       <c r="B131">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="C131">
-        <v>4017</v>
+        <v>1312</v>
       </c>
       <c r="D131">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F131">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G131">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="H131">
-        <v>2420</v>
+        <v>2200</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>50</v>
@@ -7037,7 +7033,7 @@
         <v>15</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131:R134" si="3">IF(AND(NOT(L131=O$2),NOT(L131=O$3),NOT(L131=O$4),NOT(L131=O$5),NOT(L131=O$6),NOT(L131=O$7),NOT(L131=O$8),NOT(L131=O$9),NOT(L131=O$10),NOT(L131=O$11),NOT(L131=O$12),NOT(L131=O$13),NOT(L131=O$14),NOT(L131=O$15),NOT(L131=O$16),NOT(L131=O$17),NOT(L131=O$18),NOT(L131=O$19)),L131,)</f>
+        <f>IF(AND(NOT(L131=O$2),NOT(L131=O$3),NOT(L131=O$4),NOT(L131=O$5),NOT(L131=O$6),NOT(L131=O$7),NOT(L131=O$8),NOT(L131=O$9),NOT(L131=O$10),NOT(L131=O$11),NOT(L131=O$12),NOT(L131=O$13),NOT(L131=O$14),NOT(L131=O$15),NOT(L131=O$16),NOT(L131=O$17),NOT(L131=O$18),NOT(L131=O$19)),L131,)</f>
         <v>0</v>
       </c>
     </row>
@@ -7046,28 +7042,28 @@
         <v>50</v>
       </c>
       <c r="B132">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="C132">
-        <v>1859</v>
+        <v>833</v>
       </c>
       <c r="D132">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F132">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G132">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="H132">
-        <v>2420</v>
+        <v>2200</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>50</v>
@@ -7076,103 +7072,13 @@
         <v>39</v>
       </c>
       <c r="L132" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M132" t="s">
         <v>15</v>
       </c>
       <c r="R132">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B133">
-        <v>5</v>
-      </c>
-      <c r="C133">
-        <v>1312</v>
-      </c>
-      <c r="D133">
-        <v>128</v>
-      </c>
-      <c r="E133">
-        <v>4</v>
-      </c>
-      <c r="F133">
-        <v>188</v>
-      </c>
-      <c r="G133">
-        <v>5200</v>
-      </c>
-      <c r="H133">
-        <v>2200</v>
-      </c>
-      <c r="I133">
-        <v>2</v>
-      </c>
-      <c r="J133">
-        <v>50</v>
-      </c>
-      <c r="K133" t="s">
-        <v>39</v>
-      </c>
-      <c r="L133" t="s">
-        <v>17</v>
-      </c>
-      <c r="M133" t="s">
-        <v>15</v>
-      </c>
-      <c r="R133">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>51</v>
-      </c>
-      <c r="B134">
-        <v>5</v>
-      </c>
-      <c r="C134">
-        <v>833</v>
-      </c>
-      <c r="D134">
-        <v>128</v>
-      </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134">
-        <v>188</v>
-      </c>
-      <c r="G134">
-        <v>5200</v>
-      </c>
-      <c r="H134">
-        <v>2200</v>
-      </c>
-      <c r="I134">
-        <v>2</v>
-      </c>
-      <c r="J134">
-        <v>50</v>
-      </c>
-      <c r="K134" t="s">
-        <v>39</v>
-      </c>
-      <c r="L134" t="s">
-        <v>16</v>
-      </c>
-      <c r="M134" t="s">
-        <v>15</v>
-      </c>
-      <c r="R134">
-        <f t="shared" si="3"/>
+        <f>IF(AND(NOT(L132=O$2),NOT(L132=O$3),NOT(L132=O$4),NOT(L132=O$5),NOT(L132=O$6),NOT(L132=O$7),NOT(L132=O$8),NOT(L132=O$9),NOT(L132=O$10),NOT(L132=O$11),NOT(L132=O$12),NOT(L132=O$13),NOT(L132=O$14),NOT(L132=O$15),NOT(L132=O$16),NOT(L132=O$17),NOT(L132=O$18),NOT(L132=O$19)),L132,)</f>
         <v>0</v>
       </c>
     </row>

--- a/Projekt2/DaneMalaIloscKolorow.xlsx
+++ b/Projekt2/DaneMalaIloscKolorow.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMapps\Git\Statystyczna-analiza-danych\Projekt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapar\Python\BOT\Statystyczna-analiza-danych\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33E4DB47-049C-4DF4-AD1D-9E10B81B1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C1C58D-E80F-4086-9774-3159AE5E8966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DaneMalaIloscKolorow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="62">
   <si>
     <t>Telefon\zmienne</t>
   </si>
@@ -174,11 +187,44 @@
   <si>
     <t>Honor X6A</t>
   </si>
+  <si>
+    <t>Xiaomi 14</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Xiaomi Civi 3</t>
+  </si>
+  <si>
+    <t>Czewony</t>
+  </si>
+  <si>
+    <t>Xiaomi 13T</t>
+  </si>
+  <si>
+    <t>Xiaomi 14 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi 13</t>
+  </si>
+  <si>
+    <t>Xaomi 12T PRO</t>
+  </si>
+  <si>
+    <t>Xiaomi 13TPRO</t>
+  </si>
+  <si>
+    <t>Xiaomi 13 Ultra</t>
+  </si>
+  <si>
+    <t>Xiaomi Civi 3 5G</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,48 +724,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,9 +781,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +821,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -881,7 +927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,10 +1096,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1191,8 +1239,8 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <f>COUNTIF(L$2:L$132,O3)</f>
-        <v>21</v>
+        <f>COUNTIF(L$2:L$200,O3)</f>
+        <v>30</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" si="0">IF(AND(NOT(L3=O$2),NOT(L3=O$3),NOT(L3=O$4),NOT(L3=O$5),NOT(L3=O$6),NOT(L3=O$7),NOT(L3=O$8),NOT(L3=O$9),NOT(L3=O$10),NOT(L3=O$11),NOT(L3=O$12),NOT(L3=O$13),NOT(L3=O$14),NOT(L3=O$15),NOT(L3=O$16),NOT(L3=O$17),NOT(L3=O$18),NOT(L3=O$19)),L3,)</f>
@@ -1243,8 +1291,8 @@
         <v>17</v>
       </c>
       <c r="P4">
-        <f>COUNTIF(L$2:L$132,O4)</f>
-        <v>34</v>
+        <f t="shared" ref="P4:P10" si="1">COUNTIF(L$2:L$200,O4)</f>
+        <v>40</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
@@ -1295,8 +1343,8 @@
         <v>18</v>
       </c>
       <c r="P5">
-        <f>COUNTIF(L$2:L$132,O5)</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
@@ -1347,8 +1395,8 @@
         <v>19</v>
       </c>
       <c r="P6">
-        <f>COUNTIF(L$2:L$132,O6)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
@@ -1399,8 +1447,8 @@
         <v>26</v>
       </c>
       <c r="P7">
-        <f>COUNTIF(L$2:L$132,O7)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
@@ -1447,6 +1495,10 @@
       <c r="M8" t="s">
         <v>15</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1496,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="P9">
-        <f>COUNTIF(L$2:L$132,O9)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="R9">
@@ -1548,8 +1600,8 @@
         <v>23</v>
       </c>
       <c r="P10">
-        <f>COUNTIF(L$2:L$132,O10)</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
@@ -4144,7 +4196,7 @@
         <v>15</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R130" si="1">IF(AND(NOT(L67=O$2),NOT(L67=O$3),NOT(L67=O$4),NOT(L67=O$5),NOT(L67=O$6),NOT(L67=O$7),NOT(L67=O$8),NOT(L67=O$9),NOT(L67=O$10),NOT(L67=O$11),NOT(L67=O$12),NOT(L67=O$13),NOT(L67=O$14),NOT(L67=O$15),NOT(L67=O$16),NOT(L67=O$17),NOT(L67=O$18),NOT(L67=O$19)),L67,)</f>
+        <f t="shared" ref="R67:R121" si="2">IF(AND(NOT(L67=O$2),NOT(L67=O$3),NOT(L67=O$4),NOT(L67=O$5),NOT(L67=O$6),NOT(L67=O$7),NOT(L67=O$8),NOT(L67=O$9),NOT(L67=O$10),NOT(L67=O$11),NOT(L67=O$12),NOT(L67=O$13),NOT(L67=O$14),NOT(L67=O$15),NOT(L67=O$16),NOT(L67=O$17),NOT(L67=O$18),NOT(L67=O$19)),L67,)</f>
         <v>0</v>
       </c>
     </row>
@@ -4189,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4237,7 +4289,7 @@
         <v>31</v>
       </c>
       <c r="R69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4285,7 +4337,7 @@
         <v>32</v>
       </c>
       <c r="R70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4330,7 +4382,7 @@
         <v>15</v>
       </c>
       <c r="R71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4427,7 @@
         <v>15</v>
       </c>
       <c r="R72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4420,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="R73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4465,7 +4517,7 @@
         <v>15</v>
       </c>
       <c r="R74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4510,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="R75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4555,7 +4607,7 @@
         <v>15</v>
       </c>
       <c r="R76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4600,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="R77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4645,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="R78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4690,7 +4742,7 @@
         <v>15</v>
       </c>
       <c r="R79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4787,7 @@
         <v>15</v>
       </c>
       <c r="R80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4780,7 +4832,7 @@
         <v>15</v>
       </c>
       <c r="R81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4825,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="R82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4870,7 +4922,7 @@
         <v>15</v>
       </c>
       <c r="R83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4915,7 +4967,7 @@
         <v>15</v>
       </c>
       <c r="R84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4960,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="R85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5005,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="R86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5050,7 +5102,7 @@
         <v>15</v>
       </c>
       <c r="R87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5095,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="R88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5143,7 +5195,7 @@
         <v>37</v>
       </c>
       <c r="R89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +5240,7 @@
         <v>15</v>
       </c>
       <c r="R90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5233,7 +5285,7 @@
         <v>15</v>
       </c>
       <c r="R91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5278,7 +5330,7 @@
         <v>15</v>
       </c>
       <c r="R92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5323,7 +5375,7 @@
         <v>15</v>
       </c>
       <c r="R93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5368,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="R94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +5465,7 @@
         <v>15</v>
       </c>
       <c r="R95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5458,7 +5510,7 @@
         <v>15</v>
       </c>
       <c r="R96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5503,7 +5555,7 @@
         <v>15</v>
       </c>
       <c r="R97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5548,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="R98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5593,7 +5645,7 @@
         <v>15</v>
       </c>
       <c r="R99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,7 +5690,7 @@
         <v>15</v>
       </c>
       <c r="R100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5683,7 +5735,7 @@
         <v>15</v>
       </c>
       <c r="R101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5728,7 +5780,7 @@
         <v>15</v>
       </c>
       <c r="R102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5773,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="R103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5818,7 +5870,7 @@
         <v>15</v>
       </c>
       <c r="R104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5863,7 +5915,7 @@
         <v>15</v>
       </c>
       <c r="R105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5908,7 +5960,7 @@
         <v>15</v>
       </c>
       <c r="R106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5953,7 +6005,7 @@
         <v>15</v>
       </c>
       <c r="R107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5998,7 +6050,7 @@
         <v>15</v>
       </c>
       <c r="R108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6043,7 +6095,7 @@
         <v>15</v>
       </c>
       <c r="R109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6088,7 +6140,7 @@
         <v>15</v>
       </c>
       <c r="R110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6133,7 +6185,7 @@
         <v>15</v>
       </c>
       <c r="R111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6178,7 +6230,7 @@
         <v>15</v>
       </c>
       <c r="R112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6223,7 +6275,7 @@
         <v>15</v>
       </c>
       <c r="R113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6268,7 +6320,7 @@
         <v>15</v>
       </c>
       <c r="R114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6313,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="R115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6410,7 @@
         <v>15</v>
       </c>
       <c r="R116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6403,7 +6455,7 @@
         <v>15</v>
       </c>
       <c r="R117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6448,7 +6500,7 @@
         <v>15</v>
       </c>
       <c r="R118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6493,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="R119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,7 +6590,7 @@
         <v>15</v>
       </c>
       <c r="R120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6583,7 +6635,7 @@
         <v>15</v>
       </c>
       <c r="R121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6628,7 +6680,7 @@
         <v>15</v>
       </c>
       <c r="R122">
-        <f>IF(AND(NOT(L122=O$2),NOT(L122=O$3),NOT(L122=O$4),NOT(L122=O$5),NOT(L122=O$6),NOT(L122=O$7),NOT(L122=O$8),NOT(L122=O$9),NOT(L122=O$10),NOT(L122=O$11),NOT(L122=O$12),NOT(L122=O$13),NOT(L122=O$14),NOT(L122=O$15),NOT(L122=O$16),NOT(L122=O$17),NOT(L122=O$18),NOT(L122=O$19)),L122,)</f>
+        <f t="shared" ref="R122:R132" si="3">IF(AND(NOT(L122=O$2),NOT(L122=O$3),NOT(L122=O$4),NOT(L122=O$5),NOT(L122=O$6),NOT(L122=O$7),NOT(L122=O$8),NOT(L122=O$9),NOT(L122=O$10),NOT(L122=O$11),NOT(L122=O$12),NOT(L122=O$13),NOT(L122=O$14),NOT(L122=O$15),NOT(L122=O$16),NOT(L122=O$17),NOT(L122=O$18),NOT(L122=O$19)),L122,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6673,7 +6725,7 @@
         <v>15</v>
       </c>
       <c r="R123">
-        <f>IF(AND(NOT(L123=O$2),NOT(L123=O$3),NOT(L123=O$4),NOT(L123=O$5),NOT(L123=O$6),NOT(L123=O$7),NOT(L123=O$8),NOT(L123=O$9),NOT(L123=O$10),NOT(L123=O$11),NOT(L123=O$12),NOT(L123=O$13),NOT(L123=O$14),NOT(L123=O$15),NOT(L123=O$16),NOT(L123=O$17),NOT(L123=O$18),NOT(L123=O$19)),L123,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +6770,7 @@
         <v>15</v>
       </c>
       <c r="R124">
-        <f>IF(AND(NOT(L124=O$2),NOT(L124=O$3),NOT(L124=O$4),NOT(L124=O$5),NOT(L124=O$6),NOT(L124=O$7),NOT(L124=O$8),NOT(L124=O$9),NOT(L124=O$10),NOT(L124=O$11),NOT(L124=O$12),NOT(L124=O$13),NOT(L124=O$14),NOT(L124=O$15),NOT(L124=O$16),NOT(L124=O$17),NOT(L124=O$18),NOT(L124=O$19)),L124,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6763,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="R125">
-        <f>IF(AND(NOT(L125=O$2),NOT(L125=O$3),NOT(L125=O$4),NOT(L125=O$5),NOT(L125=O$6),NOT(L125=O$7),NOT(L125=O$8),NOT(L125=O$9),NOT(L125=O$10),NOT(L125=O$11),NOT(L125=O$12),NOT(L125=O$13),NOT(L125=O$14),NOT(L125=O$15),NOT(L125=O$16),NOT(L125=O$17),NOT(L125=O$18),NOT(L125=O$19)),L125,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6808,7 +6860,7 @@
         <v>15</v>
       </c>
       <c r="R126">
-        <f>IF(AND(NOT(L126=O$2),NOT(L126=O$3),NOT(L126=O$4),NOT(L126=O$5),NOT(L126=O$6),NOT(L126=O$7),NOT(L126=O$8),NOT(L126=O$9),NOT(L126=O$10),NOT(L126=O$11),NOT(L126=O$12),NOT(L126=O$13),NOT(L126=O$14),NOT(L126=O$15),NOT(L126=O$16),NOT(L126=O$17),NOT(L126=O$18),NOT(L126=O$19)),L126,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="R127">
-        <f>IF(AND(NOT(L127=O$2),NOT(L127=O$3),NOT(L127=O$4),NOT(L127=O$5),NOT(L127=O$6),NOT(L127=O$7),NOT(L127=O$8),NOT(L127=O$9),NOT(L127=O$10),NOT(L127=O$11),NOT(L127=O$12),NOT(L127=O$13),NOT(L127=O$14),NOT(L127=O$15),NOT(L127=O$16),NOT(L127=O$17),NOT(L127=O$18),NOT(L127=O$19)),L127,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6898,7 +6950,7 @@
         <v>15</v>
       </c>
       <c r="R128">
-        <f>IF(AND(NOT(L128=O$2),NOT(L128=O$3),NOT(L128=O$4),NOT(L128=O$5),NOT(L128=O$6),NOT(L128=O$7),NOT(L128=O$8),NOT(L128=O$9),NOT(L128=O$10),NOT(L128=O$11),NOT(L128=O$12),NOT(L128=O$13),NOT(L128=O$14),NOT(L128=O$15),NOT(L128=O$16),NOT(L128=O$17),NOT(L128=O$18),NOT(L128=O$19)),L128,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6943,7 +6995,7 @@
         <v>15</v>
       </c>
       <c r="R129">
-        <f>IF(AND(NOT(L129=O$2),NOT(L129=O$3),NOT(L129=O$4),NOT(L129=O$5),NOT(L129=O$6),NOT(L129=O$7),NOT(L129=O$8),NOT(L129=O$9),NOT(L129=O$10),NOT(L129=O$11),NOT(L129=O$12),NOT(L129=O$13),NOT(L129=O$14),NOT(L129=O$15),NOT(L129=O$16),NOT(L129=O$17),NOT(L129=O$18),NOT(L129=O$19)),L129,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6988,7 +7040,7 @@
         <v>15</v>
       </c>
       <c r="R130">
-        <f>IF(AND(NOT(L130=O$2),NOT(L130=O$3),NOT(L130=O$4),NOT(L130=O$5),NOT(L130=O$6),NOT(L130=O$7),NOT(L130=O$8),NOT(L130=O$9),NOT(L130=O$10),NOT(L130=O$11),NOT(L130=O$12),NOT(L130=O$13),NOT(L130=O$14),NOT(L130=O$15),NOT(L130=O$16),NOT(L130=O$17),NOT(L130=O$18),NOT(L130=O$19)),L130,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7033,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="R131">
-        <f>IF(AND(NOT(L131=O$2),NOT(L131=O$3),NOT(L131=O$4),NOT(L131=O$5),NOT(L131=O$6),NOT(L131=O$7),NOT(L131=O$8),NOT(L131=O$9),NOT(L131=O$10),NOT(L131=O$11),NOT(L131=O$12),NOT(L131=O$13),NOT(L131=O$14),NOT(L131=O$15),NOT(L131=O$16),NOT(L131=O$17),NOT(L131=O$18),NOT(L131=O$19)),L131,)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7078,8 +7130,1043 @@
         <v>15</v>
       </c>
       <c r="R132">
-        <f>IF(AND(NOT(L132=O$2),NOT(L132=O$3),NOT(L132=O$4),NOT(L132=O$5),NOT(L132=O$6),NOT(L132=O$7),NOT(L132=O$8),NOT(L132=O$9),NOT(L132=O$10),NOT(L132=O$11),NOT(L132=O$12),NOT(L132=O$13),NOT(L132=O$14),NOT(L132=O$15),NOT(L132=O$16),NOT(L132=O$17),NOT(L132=O$18),NOT(L132=O$19)),L132,)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>3999</v>
+      </c>
+      <c r="D133">
+        <v>256</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
+        <v>52</v>
+      </c>
+      <c r="L133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134">
+        <v>3300</v>
+      </c>
+      <c r="D134">
+        <v>512</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="K134" t="s">
+        <v>52</v>
+      </c>
+      <c r="L134" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135">
+        <v>1997</v>
+      </c>
+      <c r="D135">
+        <v>256</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="K135" t="s">
+        <v>52</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136">
+        <v>2071</v>
+      </c>
+      <c r="D136">
+        <v>256</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="K136" t="s">
+        <v>52</v>
+      </c>
+      <c r="L136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137">
+        <v>1995</v>
+      </c>
+      <c r="D137">
+        <v>256</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="K137" t="s">
+        <v>52</v>
+      </c>
+      <c r="L137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138">
+        <v>4999</v>
+      </c>
+      <c r="D138">
+        <v>512</v>
+      </c>
+      <c r="E138">
+        <v>16</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
+        <v>52</v>
+      </c>
+      <c r="L138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139">
+        <v>4999</v>
+      </c>
+      <c r="D139">
+        <v>512</v>
+      </c>
+      <c r="E139">
+        <v>16</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>52</v>
+      </c>
+      <c r="L139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140">
+        <v>5499</v>
+      </c>
+      <c r="D140">
+        <v>1000</v>
+      </c>
+      <c r="E140">
+        <v>16</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>52</v>
+      </c>
+      <c r="L140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141">
+        <v>4499</v>
+      </c>
+      <c r="D141">
+        <v>256</v>
+      </c>
+      <c r="E141">
+        <v>12</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>52</v>
+      </c>
+      <c r="L141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142">
+        <v>4499</v>
+      </c>
+      <c r="D142">
+        <v>256</v>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>52</v>
+      </c>
+      <c r="L142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143">
+        <v>5699</v>
+      </c>
+      <c r="D143">
+        <v>1000</v>
+      </c>
+      <c r="E143">
+        <v>16</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>52</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144">
+        <v>3385</v>
+      </c>
+      <c r="D144">
+        <v>512</v>
+      </c>
+      <c r="E144">
+        <v>12</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="K144" t="s">
+        <v>52</v>
+      </c>
+      <c r="L144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145">
+        <v>3375</v>
+      </c>
+      <c r="D145">
+        <v>512</v>
+      </c>
+      <c r="E145">
+        <v>12</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="K145" t="s">
+        <v>52</v>
+      </c>
+      <c r="L145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146">
+        <v>2975</v>
+      </c>
+      <c r="D146">
+        <v>256</v>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="K146" t="s">
+        <v>52</v>
+      </c>
+      <c r="L146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147">
+        <v>2975</v>
+      </c>
+      <c r="D147">
+        <v>256</v>
+      </c>
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="K147" t="s">
+        <v>52</v>
+      </c>
+      <c r="L147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148">
+        <v>2975</v>
+      </c>
+      <c r="D148">
+        <v>256</v>
+      </c>
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="K148" t="s">
+        <v>52</v>
+      </c>
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149">
+        <v>3375</v>
+      </c>
+      <c r="D149">
+        <v>512</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="I149">
+        <v>5</v>
+      </c>
+      <c r="K149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150">
+        <v>3375</v>
+      </c>
+      <c r="D150">
+        <v>512</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
+      <c r="I150">
+        <v>5</v>
+      </c>
+      <c r="K150" t="s">
+        <v>52</v>
+      </c>
+      <c r="L150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151">
+        <v>3375</v>
+      </c>
+      <c r="D151">
+        <v>512</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+      <c r="K151" t="s">
+        <v>52</v>
+      </c>
+      <c r="L151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152">
+        <v>4129</v>
+      </c>
+      <c r="D152">
+        <v>512</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+      <c r="K152" t="s">
+        <v>52</v>
+      </c>
+      <c r="L152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153">
+        <v>2835</v>
+      </c>
+      <c r="D153">
+        <v>256</v>
+      </c>
+      <c r="E153">
+        <v>8</v>
+      </c>
+      <c r="I153">
+        <v>5</v>
+      </c>
+      <c r="K153" t="s">
+        <v>52</v>
+      </c>
+      <c r="L153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154">
+        <v>2835</v>
+      </c>
+      <c r="D154">
+        <v>256</v>
+      </c>
+      <c r="E154">
+        <v>8</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="K154" t="s">
+        <v>52</v>
+      </c>
+      <c r="L154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155">
+        <v>2835</v>
+      </c>
+      <c r="D155">
+        <v>256</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="I155">
+        <v>5</v>
+      </c>
+      <c r="K155" t="s">
+        <v>52</v>
+      </c>
+      <c r="L155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156">
+        <v>2299</v>
+      </c>
+      <c r="D156">
+        <v>256</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="I156">
+        <v>6</v>
+      </c>
+      <c r="K156" t="s">
+        <v>52</v>
+      </c>
+      <c r="L156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157">
+        <v>2199</v>
+      </c>
+      <c r="D157">
+        <v>256</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="I157">
+        <v>6</v>
+      </c>
+      <c r="K157" t="s">
+        <v>52</v>
+      </c>
+      <c r="L157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158">
+        <v>1375</v>
+      </c>
+      <c r="D158">
+        <v>256</v>
+      </c>
+      <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+      <c r="K158" t="s">
+        <v>52</v>
+      </c>
+      <c r="L158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159">
+        <v>1315</v>
+      </c>
+      <c r="D159">
+        <v>256</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <v>6</v>
+      </c>
+      <c r="K159" t="s">
+        <v>52</v>
+      </c>
+      <c r="L159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160">
+        <v>2199</v>
+      </c>
+      <c r="D160">
+        <v>256</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="I160">
+        <v>6</v>
+      </c>
+      <c r="K160" t="s">
+        <v>52</v>
+      </c>
+      <c r="L160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161">
+        <v>2639</v>
+      </c>
+      <c r="D161">
+        <v>512</v>
+      </c>
+      <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="K161" t="s">
+        <v>52</v>
+      </c>
+      <c r="L161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162">
+        <v>3499</v>
+      </c>
+      <c r="D162">
+        <v>512</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="K162" t="s">
+        <v>52</v>
+      </c>
+      <c r="L162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163">
+        <v>3997</v>
+      </c>
+      <c r="D163">
+        <v>512</v>
+      </c>
+      <c r="E163">
+        <v>12</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="K163" t="s">
+        <v>52</v>
+      </c>
+      <c r="L163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164">
+        <v>5700</v>
+      </c>
+      <c r="D164">
+        <v>512</v>
+      </c>
+      <c r="E164">
+        <v>16</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="K164" t="s">
+        <v>52</v>
+      </c>
+      <c r="L164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165">
+        <v>5400</v>
+      </c>
+      <c r="D165">
+        <v>512</v>
+      </c>
+      <c r="E165">
+        <v>16</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="K165" t="s">
+        <v>52</v>
+      </c>
+      <c r="L165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166">
+        <v>5199</v>
+      </c>
+      <c r="D166">
+        <v>512</v>
+      </c>
+      <c r="E166">
+        <v>16</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="K166" t="s">
+        <v>52</v>
+      </c>
+      <c r="L166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167">
+        <v>5700</v>
+      </c>
+      <c r="D167">
+        <v>512</v>
+      </c>
+      <c r="E167">
+        <v>16</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="K167" t="s">
+        <v>52</v>
+      </c>
+      <c r="L167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>5200</v>
+      </c>
+      <c r="D168">
+        <v>512</v>
+      </c>
+      <c r="E168">
+        <v>16</v>
+      </c>
+      <c r="I168">
+        <v>3</v>
+      </c>
+      <c r="K168" t="s">
+        <v>52</v>
+      </c>
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169">
+        <v>5899</v>
+      </c>
+      <c r="D169">
+        <v>1000</v>
+      </c>
+      <c r="E169">
+        <v>16</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="K169" t="s">
+        <v>52</v>
+      </c>
+      <c r="L169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170">
+        <v>5600</v>
+      </c>
+      <c r="D170">
+        <v>1000</v>
+      </c>
+      <c r="E170">
+        <v>16</v>
+      </c>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="K170" t="s">
+        <v>52</v>
+      </c>
+      <c r="L170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171">
+        <v>5600</v>
+      </c>
+      <c r="D171">
+        <v>1000</v>
+      </c>
+      <c r="E171">
+        <v>16</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="K171" t="s">
+        <v>52</v>
+      </c>
+      <c r="L171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172">
+        <v>2485</v>
+      </c>
+      <c r="D172">
+        <v>512</v>
+      </c>
+      <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="K172" t="s">
+        <v>52</v>
+      </c>
+      <c r="L172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173">
+        <v>2295</v>
+      </c>
+      <c r="D173">
+        <v>256</v>
+      </c>
+      <c r="E173">
+        <v>12</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="K173" t="s">
+        <v>52</v>
+      </c>
+      <c r="L173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174">
+        <v>4399</v>
+      </c>
+      <c r="D174">
+        <v>1000</v>
+      </c>
+      <c r="E174">
+        <v>16</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="K174" t="s">
+        <v>52</v>
+      </c>
+      <c r="L174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175">
+        <v>4399</v>
+      </c>
+      <c r="D175">
+        <v>1000</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="K175" t="s">
+        <v>52</v>
+      </c>
+      <c r="L175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176">
+        <v>4399</v>
+      </c>
+      <c r="D176">
+        <v>1000</v>
+      </c>
+      <c r="E176">
+        <v>16</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="K176" t="s">
+        <v>52</v>
+      </c>
+      <c r="L176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177">
+        <v>4399</v>
+      </c>
+      <c r="D177">
+        <v>1000</v>
+      </c>
+      <c r="E177">
+        <v>16</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="K177" t="s">
+        <v>52</v>
+      </c>
+      <c r="L177" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
